--- a/Manager/static/purchaseorder/2287655.xlsx
+++ b/Manager/static/purchaseorder/2287655.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Purchase Order</t>
   </si>
@@ -31,7 +31,7 @@
     <t>2287655</t>
   </si>
   <si>
-    <t>2021-04-22</t>
+    <t>2021-04-25</t>
   </si>
   <si>
     <t>vendor 2</t>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Subtotal</t>
-  </si>
-  <si>
-    <t>saringan</t>
   </si>
   <si>
     <t>myself</t>
@@ -416,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,50 +475,33 @@
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>550</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>1075</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
